--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>TC</t>
   </si>
@@ -188,12 +193,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,13 +293,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,22 +628,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -626,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -640,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -654,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -668,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -682,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -696,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -710,13 +755,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
     </row>
   </sheetData>
@@ -726,24 +771,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -766,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -783,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -800,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -818,7 +863,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -836,7 +881,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -854,7 +899,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -872,7 +917,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -890,7 +935,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -908,7 +953,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -933,28 +978,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -995,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1033,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
@@ -1103,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1138,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
@@ -1173,7 +1218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>55</v>
       </c>
@@ -1243,7 +1288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -1278,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1315,15 +1360,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1331,29 +1376,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1437,7 +1482,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
@@ -201,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +290,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,10 +625,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +670,7 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -771,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -816,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12">
         <v>8165.04</v>
@@ -833,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="12">
         <v>8165.3</v>
@@ -850,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="12">
         <v>8166.6</v>
@@ -868,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="12">
         <v>8166.86</v>
@@ -886,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12">
         <v>45007.040000000001</v>
@@ -904,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12">
         <v>45007.3</v>
@@ -922,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12">
         <v>45013.54</v>
@@ -940,7 +937,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12">
         <v>45013.8</v>
@@ -958,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12">
         <v>66170</v>
@@ -978,11 +975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,13 +1039,13 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
@@ -1057,13 +1054,13 @@
         <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>45</v>
@@ -1080,13 +1077,13 @@
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>18</v>
@@ -1095,13 +1092,13 @@
         <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>45</v>
@@ -1115,13 +1112,13 @@
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>18</v>
@@ -1130,13 +1127,13 @@
         <v>47</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>45</v>
@@ -1150,13 +1147,13 @@
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>18</v>
@@ -1165,13 +1162,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>45</v>
@@ -1185,13 +1182,13 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>18</v>
@@ -1200,13 +1197,13 @@
         <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>45</v>
@@ -1220,13 +1217,13 @@
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -1235,13 +1232,13 @@
         <v>47</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>45</v>
@@ -1255,13 +1252,13 @@
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
@@ -1270,13 +1267,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>45</v>
@@ -1290,13 +1287,13 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -1305,13 +1302,13 @@
         <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>45</v>
@@ -1325,13 +1322,13 @@
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -1340,13 +1337,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>45</v>
@@ -1360,15 +1357,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1376,10 +1373,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1444,13 +1441,13 @@
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
@@ -1459,13 +1456,13 @@
         <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>48</v>
@@ -1474,7 +1471,7 @@
         <v>46</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1482,7 +1479,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -81,33 +81,6 @@
     <t>Two Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -186,13 +159,40 @@
     <t>NI2WeeklyCat_B</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>TwoWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 450</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 451</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 452</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 453</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 454</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 455</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 456</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 457</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 458</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI2WCB EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI2WCB_Payroll</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,7 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -269,9 +268,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -283,9 +279,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -628,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -655,22 +650,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -682,26 +677,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
+      <c r="A5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -710,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -725,7 +720,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -753,13 +748,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,16 +766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="79.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -809,86 +804,86 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10">
+        <v>8165.04</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10">
+        <v>8165.3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8166.6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8166.86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="12">
-        <v>8165.04</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8165.3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12">
-        <v>8166.6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="12">
-        <v>8166.86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10">
         <v>45007.040000000001</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -897,16 +892,16 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10">
         <v>45007.3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -915,16 +910,16 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10">
         <v>45013.54</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -933,16 +928,16 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10">
         <v>45013.8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -951,16 +946,16 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10">
         <v>66170</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -978,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,362 +991,362 @@
     <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="I10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1366,9 +1361,11 @@
     <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A10" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1376,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,94 +1389,95 @@
     <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -199,6 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,49 +247,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -305,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -343,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +501,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -509,13 +510,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -525,7 +526,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -534,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,12 +554,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -589,7 +590,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -608,7 +609,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -620,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,10 +630,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -663,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -677,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -691,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -705,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -719,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -733,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -757,13 +758,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -772,12 +773,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,13 +965,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -979,19 +980,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1352,25 +1353,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId11" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId12" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1379,20 +1380,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1476,9 +1477,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -198,8 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,49 +241,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,10 +300,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -344,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,26 +371,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,7 +461,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -510,13 +470,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -526,7 +486,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -535,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,7 +504,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,12 +514,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -590,7 +550,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -609,7 +569,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -621,22 +581,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -664,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -678,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -692,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -706,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -720,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -734,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -748,37 +708,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="79.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="43.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -965,34 +925,34 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1071,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -1106,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -1141,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1211,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
@@ -1246,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1281,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1316,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1353,47 +1313,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId11" ref="A3:A10"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A10" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId12" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1477,9 +1437,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4512" windowWidth="14340" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -194,6 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,49 +242,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -461,7 +462,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -470,13 +471,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,12 +515,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -550,7 +551,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -569,7 +570,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -581,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,13 +591,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -624,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -652,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -666,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -680,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -708,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,13 +719,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -733,12 +734,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +926,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -940,19 +941,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -993,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1313,25 +1314,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId11" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId12" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1340,20 +1341,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1437,9 +1438,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="14340" windowHeight="4512" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4512" windowWidth="14340" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -194,6 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,49 +242,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -461,7 +462,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -470,13 +471,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,12 +515,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -550,7 +551,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -569,7 +570,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -581,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,13 +591,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -624,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -652,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -666,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -680,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -694,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -708,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,13 +719,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -733,12 +734,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +926,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -940,19 +941,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -993,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>55</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -1313,25 +1314,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId11" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId12" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1340,20 +1341,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
@@ -1437,9 +1438,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4512" windowWidth="14340" xWindow="396" yWindow="36"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -193,8 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,49 +246,46 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +373,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,7 +497,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -471,13 +506,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -487,7 +522,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -496,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,12 +550,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -551,7 +586,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -570,7 +605,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -582,22 +617,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -625,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -639,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -653,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -667,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="15" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -681,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -695,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -709,37 +744,37 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="79.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="18.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,7 +801,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -783,7 +818,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -800,7 +835,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -818,7 +853,7 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -836,7 +871,7 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -854,7 +889,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -872,7 +907,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -890,7 +925,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -908,7 +943,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -926,34 +961,34 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="50.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -994,11 +1029,11 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1007,7 +1042,7 @@
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1032,11 +1067,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1045,7 +1080,7 @@
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1067,11 +1102,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1080,7 +1115,7 @@
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1102,11 +1137,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1115,7 +1150,7 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1137,11 +1172,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1150,7 +1185,7 @@
       <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1172,11 +1207,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1185,7 +1220,7 @@
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1207,11 +1242,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1220,7 +1255,7 @@
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1242,11 +1277,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1255,7 +1290,7 @@
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1277,11 +1312,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1290,7 +1325,7 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1314,47 +1349,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId11" ref="A3:A10"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="E2:E10" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId12" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="54.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1398,11 +1425,11 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1438,9 +1465,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>TC</t>
   </si>
@@ -199,6 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,46 +247,46 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -340,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,7 +498,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -506,13 +507,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -522,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -540,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -550,12 +551,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -586,7 +587,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -605,7 +606,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -617,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,10 +627,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -660,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -674,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -688,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -702,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -716,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -730,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -754,13 +755,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -769,12 +770,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,13 +962,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -976,19 +977,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>55</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
@@ -1349,17 +1350,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2:E10" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3:A10"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E2:E10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId4" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1368,20 +1369,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="38.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -1465,9 +1466,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>